--- a/public/results/user_results.xlsx
+++ b/public/results/user_results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,9 +504,77 @@
         <v>2024-09-21T07:20:30.022Z</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2024-09-21T07:25:46.278Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2024-09-21T07:27:05.302Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>naiam</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2024-09-21T08:10:45.534Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2024-09-21T08:26:18.198Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>